--- a/JUEGOS PLACAS/P14NDC103 PLACAS 4.5 ACERO/P14NDJ31 PLACAS FEMUR DISTAL # 1 ACERO.xlsx
+++ b/JUEGOS PLACAS/P14NDC103 PLACAS 4.5 ACERO/P14NDJ31 PLACAS FEMUR DISTAL # 1 ACERO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\JUEGOS PLACAS\P14NDC103 PLACAS 4.5 ACERO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE93B810-C4C8-4C16-8251-480FC3991490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC7CAEF-4D3D-43CB-9CA3-F2629BB9F946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A9B3482B-969C-48CA-892B-4B23151FE709}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A9B3482B-969C-48CA-892B-4B23151FE709}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -126,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>REGISTRO DE NOTA DE ENTREGA</t>
   </si>
@@ -354,6 +365,9 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -967,9 +981,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1007,7 +1021,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1113,7 +1127,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1255,7 +1269,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1266,7 +1280,7 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1653,6 +1667,9 @@
         <v>1</v>
       </c>
       <c r="E29" s="42"/>
+      <c r="G29" s="37" t="s">
+        <v>76</v>
+      </c>
       <c r="K29" s="38"/>
       <c r="L29" s="38"/>
     </row>
